--- a/test.xlsx
+++ b/test.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Level 1 Node</t>
   </si>
@@ -26,6 +26,9 @@
   </si>
   <si>
     <t>Level 5 Node</t>
+  </si>
+  <si>
+    <t>Root</t>
   </si>
   <si>
     <t>Parent 1</t>
@@ -53,7 +56,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <color theme="1"/>
       <family val="2"/>
@@ -68,10 +71,6 @@
     </font>
     <font>
       <b/>
-      <color rgb="000000"/>
-      <sz val="11"/>
-    </font>
-    <font>
       <i/>
       <color rgb="EB0D2F"/>
       <sz val="11"/>
@@ -108,10 +107,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -477,41 +476,43 @@
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
+      <c r="A2" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C4" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D5" s="3" t="s">
-        <v>7</v>
+      <c r="D5" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E6" s="4" t="s">
-        <v>8</v>
+      <c r="E6" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C8" s="4" t="s">
-        <v>10</v>
+      <c r="C8" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
